--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1428058-EC54-4A21-A778-B757E5B16DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA6D42-C43D-4EC3-9394-1E0C262127C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Estudar codigo</t>
+  </si>
+  <si>
+    <t>Discussão da divisão do trabalho</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -930,10 +933,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1016,19 +1019,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.39999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2200,7 +2203,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,11 +2346,19 @@
       <c r="S6" s="23"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -2535,7 +2546,7 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ref="F16:I16" si="0">SUM(F6:F15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
@@ -2567,11 +2578,11 @@
       <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
@@ -2607,23 +2618,23 @@
       <c r="C18" s="49"/>
       <c r="D18" s="37">
         <f>D17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="38">
         <f>$D$18-($D$18/5*1)</f>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="F18" s="38">
         <f>$D$18-($D$18/5*2)</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G18" s="38">
         <f>$D$18-($D$18/5*3)</f>
-        <v>0.39999999999999991</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="H18" s="38">
         <f>$D$18-($D$18/5*4)</f>
-        <v>0.19999999999999996</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA6D42-C43D-4EC3-9394-1E0C262127C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB6485-E551-44B6-98DE-84F920586A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Discussão da divisão do trabalho</t>
+  </si>
+  <si>
+    <t>Implementação das 2 funcionalidades</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -933,22 +936,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,19 +1022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79999999999999982</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2203,7 +2206,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,12 +2377,20 @@
       <c r="S7" s="23"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="23"/>
@@ -2550,7 +2561,7 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
@@ -2578,27 +2589,27 @@
       <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -2618,23 +2629,23 @@
       <c r="C18" s="49"/>
       <c r="D18" s="37">
         <f>D17</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="38">
         <f>$D$18-($D$18/5*1)</f>
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="38">
         <f>$D$18-($D$18/5*2)</f>
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="38">
         <f>$D$18-($D$18/5*3)</f>
-        <v>0.79999999999999982</v>
+        <v>2</v>
       </c>
       <c r="H18" s="38">
         <f>$D$18-($D$18/5*4)</f>
-        <v>0.39999999999999991</v>
+        <v>1</v>
       </c>
       <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB6485-E551-44B6-98DE-84F920586A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0E596-E1FA-4978-9881-48685439A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -948,10 +948,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2206,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,9 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -2565,7 +2567,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
@@ -2605,11 +2607,11 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0E596-E1FA-4978-9881-48685439A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB003D1-48CF-4A62-87C7-EB8D4767C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +951,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2206,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2394,9 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -2571,7 +2573,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -2611,7 +2613,7 @@
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB003D1-48CF-4A62-87C7-EB8D4767C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637A205-21FE-40F0-834B-98EE81CFC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -838,7 +838,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,16 +942,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2206,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2333,9 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
@@ -2364,7 +2366,9 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -2561,7 +2565,7 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ref="F16:I16" si="0">SUM(F6:F15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
@@ -2573,7 +2577,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -2601,19 +2605,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637A205-21FE-40F0-834B-98EE81CFC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029B3B7-1AAC-496B-A154-637FB6642B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -72,13 +72,16 @@
     <t>Ideal Burndown</t>
   </si>
   <si>
-    <t>Estudar codigo</t>
+    <t>Implementaçâo das funcionalidades</t>
   </si>
   <si>
-    <t>Discussão da divisão do trabalho</t>
+    <t>Report a explicar as metricas</t>
   </si>
   <si>
-    <t>Implementação das 2 funcionalidades</t>
+    <t>Testes unitarios</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
   </si>
 </sst>
 </file>
@@ -832,13 +835,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,13 +948,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,21 +2209,21 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2252,7 +2255,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
@@ -2263,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="28">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F4" s="28">
-        <v>44887</v>
+        <v>44894</v>
       </c>
       <c r="G4" s="28">
-        <v>44888</v>
+        <v>44895</v>
       </c>
       <c r="H4" s="28">
-        <v>44889</v>
+        <v>44896</v>
       </c>
       <c r="I4" s="29">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -2288,7 +2291,7 @@
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="53"/>
       <c r="C5" s="51"/>
       <c r="D5" s="1" t="s">
@@ -2320,9 +2323,9 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
@@ -2333,9 +2336,7 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
@@ -2350,9 +2351,9 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>14</v>
@@ -2364,11 +2365,11 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -2380,27 +2381,23 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -2412,13 +2409,21 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="23"/>
@@ -2432,7 +2437,7 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="20"/>
@@ -2452,7 +2457,7 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="33"/>
       <c r="D11" s="20"/>
@@ -2472,7 +2477,7 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="20"/>
@@ -2492,7 +2497,7 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="20"/>
@@ -2512,7 +2517,7 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20"/>
@@ -2532,7 +2537,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="D15" s="20"/>
       <c r="E15" s="11"/>
@@ -2551,7 +2556,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
         <v>11</v>
       </c>
@@ -2569,15 +2574,15 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -2590,7 +2595,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="46" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +2614,7 @@
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
@@ -2617,7 +2622,7 @@
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -2630,7 +2635,7 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>12</v>
       </c>
@@ -2670,7 +2675,7 @@
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
       <c r="D19" s="23"/>
@@ -2690,7 +2695,7 @@
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="23"/>
@@ -2705,7 +2710,7 @@
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="23"/>
@@ -2725,7 +2730,7 @@
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="23"/>
@@ -2744,7 +2749,7 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="M23" s="24"/>
     </row>
   </sheetData>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029B3B7-1AAC-496B-A154-637FB6642B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F749BD-B6C1-4421-B26E-85CCC7387404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -939,16 +942,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1025,19 +1028,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2209,7 +2212,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2424,7 +2427,9 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -2438,9 +2443,15 @@
       <c r="S9" s="23"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2578,7 +2589,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
@@ -2602,19 +2613,19 @@
       <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
@@ -2642,23 +2653,23 @@
       <c r="C18" s="49"/>
       <c r="D18" s="37">
         <f>D17</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="38">
         <f>$D$18-($D$18/5*1)</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F18" s="38">
         <f>$D$18-($D$18/5*2)</f>
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="G18" s="38">
         <f>$D$18-($D$18/5*3)</f>
-        <v>2</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H18" s="38">
         <f>$D$18-($D$18/5*4)</f>
-        <v>1</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>

--- a/Phase 2/Sprint3/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint3/BurnDown_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F749BD-B6C1-4421-B26E-85CCC7387404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4B96B-504B-4EE9-A738-80E88DD19285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +957,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,7 +2212,7 @@
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,7 +2456,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -2593,7 +2595,7 @@
       </c>
       <c r="I16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -2633,7 +2635,7 @@
       </c>
       <c r="I17" s="36">
         <f>H17-SUM(I6:I15)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
